--- a/matlab/experiment/mmm.xlsx
+++ b/matlab/experiment/mmm.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\waltd\OneDrive\Documents\2021\semester2\thesis-2021\matlab\experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8F1D8D7-ECB3-48B5-B88E-B3A91DF71F60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62F662DD-07D4-44F3-A33A-934B954F5012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="1344" windowWidth="19812" windowHeight="11616" activeTab="7" xr2:uid="{BA0D7718-0A53-4F29-B5D3-30D1AD4DA12F}"/>
+    <workbookView xWindow="0" yWindow="1368" windowWidth="19788" windowHeight="11592" activeTab="7" xr2:uid="{BA0D7718-0A53-4F29-B5D3-30D1AD4DA12F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -8380,7 +8380,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>-2.9699494467955851</v>
+        <v>-1.0834005033462351</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
@@ -8893,7 +8893,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1">
-        <v>-2.9699494467955851</v>
+        <v>-1.0834005033462351</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
